--- a/20191008/201910082.xlsx
+++ b/20191008/201910082.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>速度</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>09:38:08</t>
-  </si>
-  <si>
-    <t>09:38:38</t>
   </si>
   <si>
     <t>经度</t>
@@ -142,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -150,6 +147,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,17 +453,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -677,8 +675,8 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
+      <c r="E13" s="3">
+        <v>0.40182870370370366</v>
       </c>
     </row>
   </sheetData>
